--- a/testinputs/web_website_url.xlsx
+++ b/testinputs/web_website_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="272">
   <si>
     <t>WebsiteURL</t>
   </si>
   <si>
     <t>Tradename</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>AlphaTronics</t>
-  </si>
-  <si>
-    <t>https://www.github.com</t>
-  </si>
-  <si>
-    <t>BetaTech Solutions</t>
   </si>
   <si>
     <t>https://www.amazon.com</t>
@@ -849,10 +837,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -877,6 +865,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -892,130 +1002,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,169 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1042,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,17 +1212,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,8 +1224,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,41 +1295,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,148 +1314,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1800,10 +1788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2113,20 +2101,20 @@
         <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>29</v>
@@ -2134,15 +2122,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>33</v>
@@ -2150,15 +2138,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>37</v>
@@ -2166,7 +2154,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>39</v>
@@ -2174,7 +2162,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
@@ -2182,7 +2170,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>43</v>
@@ -2190,7 +2178,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>45</v>
@@ -2198,7 +2186,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -2206,7 +2194,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -2214,7 +2202,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -2222,7 +2210,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
@@ -2230,7 +2218,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -2238,7 +2226,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
@@ -2246,7 +2234,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -2254,7 +2242,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
@@ -2262,7 +2250,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -2270,7 +2258,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -2278,7 +2266,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -2286,7 +2274,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -2294,7 +2282,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -2302,7 +2290,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
@@ -2310,23 +2298,23 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -2334,15 +2322,15 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>33</v>
@@ -2350,15 +2338,15 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
@@ -2366,7 +2354,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>39</v>
@@ -2374,7 +2362,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>41</v>
@@ -2382,7 +2370,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>43</v>
@@ -2390,7 +2378,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>45</v>
@@ -2398,7 +2386,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>47</v>
@@ -2406,7 +2394,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>49</v>
@@ -2414,7 +2402,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>51</v>
@@ -2422,7 +2410,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>53</v>
@@ -2430,7 +2418,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>55</v>
@@ -2438,7 +2426,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>57</v>
@@ -2446,7 +2434,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>59</v>
@@ -2454,7 +2442,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>61</v>
@@ -2462,7 +2450,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>63</v>
@@ -2470,7 +2458,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>65</v>
@@ -2478,7 +2466,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>67</v>
@@ -2486,7 +2474,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>69</v>
@@ -2494,7 +2482,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>71</v>
@@ -2502,7 +2490,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>73</v>
@@ -2510,23 +2498,23 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
@@ -2534,15 +2522,15 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>33</v>
@@ -2550,15 +2538,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>37</v>
@@ -2566,7 +2554,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>39</v>
@@ -2574,7 +2562,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>41</v>
@@ -2582,7 +2570,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>43</v>
@@ -2590,7 +2578,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>45</v>
@@ -2598,7 +2586,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>47</v>
@@ -2606,18 +2594,18 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3102,23 +3090,23 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>265</v>
@@ -3148,21 +3136,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>275</v>
-      </c>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="2"/>
@@ -3254,182 +3232,174 @@
     <row r="199" spans="2:2">
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.github.com" tooltip="https://www.github.com/"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.amazon.com" tooltip="https://www.amazon.com/"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.nytimes.com" tooltip="https://www.nytimes.com/"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.wikipedia.org" tooltip="https://www.wikipedia.org/"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.cnn.com" tooltip="https://www.cnn.com/"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.apple.com" tooltip="https://www.apple.com/"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.microsoft.com" tooltip="https://www.microsoft.com/"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.youtube.com" tooltip="https://www.youtube.com/"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.facebook.com" tooltip="https://www.facebook.com/"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.instagram.com" tooltip="https://www.instagram.com/"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.twitter.com" tooltip="https://www.twitter.com/"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.linkedin.com" tooltip="https://www.linkedin.com/"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://www.reddit.com" tooltip="https://www.reddit.com/"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://www.stackoverflow.com" tooltip="https://www.stackoverflow.com/"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.netflix.com" tooltip="https://www.netflix.com/"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://www.spotify.com" tooltip="https://www.spotify.com/"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.pinterest.com" tooltip="https://www.pinterest.com/"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://www.tumblr.com" tooltip="https://www.tumblr.com/"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://www.yahoo.com" tooltip="https://www.yahoo.com/"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://www.bing.com" tooltip="https://www.bing.com/"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://www.nasa.gov" tooltip="https://www.nasa.gov/"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://www.bbc.com" tooltip="https://www.bbc.com/"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://www.duckduckgo.com" tooltip="https://www.duckduckgo.com/"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://www.quora.com" tooltip="https://www.quora.com/"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://www.dropbox.com" tooltip="https://www.dropbox.com/"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://www.medium.com" tooltip="https://www.medium.com/"/>
-    <hyperlink ref="A29" r:id="rId27" display="https://www.twitch.tv" tooltip="https://www.twitch.tv/"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://www.ebay.com" tooltip="https://www.ebay.com/"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://www.aliexpress.com" tooltip="https://www.aliexpress.com/"/>
-    <hyperlink ref="A32" r:id="rId30" display="https://www.walmart.com" tooltip="https://www.walmart.com/"/>
-    <hyperlink ref="A33" r:id="rId31" display="https://www.target.com" tooltip="https://www.target.com/"/>
-    <hyperlink ref="A34" r:id="rId32" display="https://www.bestbuy.com" tooltip="https://www.bestbuy.com/"/>
-    <hyperlink ref="A35" r:id="rId33" display="https://www.homedepot.com" tooltip="https://www.homedepot.com/"/>
-    <hyperlink ref="A36" r:id="rId34" display="https://www.lowes.com" tooltip="https://www.lowes.com/"/>
-    <hyperlink ref="A37" r:id="rId35" display="https://www.costco.com" tooltip="https://www.costco.com/"/>
-    <hyperlink ref="A38" r:id="rId36" display="https://www.alibaba.com" tooltip="https://www.alibaba.com/"/>
-    <hyperlink ref="A39" r:id="rId37" display="https://www.booking.com" tooltip="https://www.booking.com/"/>
-    <hyperlink ref="A40" r:id="rId38" display="https://www.expedia.com" tooltip="https://www.expedia.com/"/>
-    <hyperlink ref="A41" r:id="rId39" display="https://www.airbnb.com" tooltip="https://www.airbnb.com/"/>
-    <hyperlink ref="A42" r:id="rId40" display="https://www.zillow.com" tooltip="https://www.zillow.com/"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://www.trulia.com" tooltip="https://www.trulia.com/"/>
-    <hyperlink ref="A44" r:id="rId42" display="https://www.realtor.com" tooltip="https://www.realtor.com/"/>
-    <hyperlink ref="A45" r:id="rId43" display="https://www.reuters.com" tooltip="https://www.reuters.com/"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://www.bloomberg.com" tooltip="https://www.bloomberg.com/"/>
-    <hyperlink ref="A47" r:id="rId45" display="https://www.wsj.com" tooltip="https://www.wsj.com/"/>
-    <hyperlink ref="A48" r:id="rId46" display="https://www.ft.com" tooltip="https://www.ft.com/"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://www.economist.com" tooltip="https://www.economist.com/"/>
-    <hyperlink ref="A50" r:id="rId48" display="https://www.forbes.com" tooltip="https://www.forbes.com/"/>
-    <hyperlink ref="A51" r:id="rId49" display="https://www.businessinsider.com" tooltip="https://www.businessinsider.com/"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://www.cnbc.com" tooltip="https://www.cnbc.com/"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://www.buzzfeed.com" tooltip="https://www.buzzfeed.com/"/>
-    <hyperlink ref="A54" r:id="rId52" display="https://www.techcrunch.com" tooltip="https://www.techcrunch.com/"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://www.engadget.com" tooltip="https://www.engadget.com/"/>
-    <hyperlink ref="A56" r:id="rId54" display="https://www.arstechnica.com" tooltip="https://www.arstechnica.com/"/>
-    <hyperlink ref="A57" r:id="rId55" display="https://www.wired.com" tooltip="https://www.wired.com/"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://www.theverge.com" tooltip="https://www.theverge.com/"/>
-    <hyperlink ref="A59" r:id="rId57" display="https://www.mashable.com" tooltip="https://www.mashable.com/"/>
-    <hyperlink ref="A60" r:id="rId58" display="https://www.cnet.com" tooltip="https://www.cnet.com/"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://www.pcworld.com" tooltip="https://www.pcworld.com/"/>
-    <hyperlink ref="A62" r:id="rId60" display="https://www.tomsguide.com" tooltip="https://www.tomsguide.com/"/>
-    <hyperlink ref="A63" r:id="rId61" display="https://www.gamespot.com" tooltip="https://www.gamespot.com/"/>
-    <hyperlink ref="A64" r:id="rId62" display="https://www.ign.com" tooltip="https://www.ign.com/"/>
-    <hyperlink ref="A65" r:id="rId63" display="https://www.polygon.com" tooltip="https://www.polygon.com/"/>
-    <hyperlink ref="A66" r:id="rId64" display="https://www.kotaku.com" tooltip="https://www.kotaku.com/"/>
-    <hyperlink ref="A67" r:id="rId65" display="https://www.eurogamer.net" tooltip="https://www.eurogamer.net/"/>
-    <hyperlink ref="A68" r:id="rId66" display="https://www.bbcgoodfood.com" tooltip="https://www.bbcgoodfood.com/"/>
-    <hyperlink ref="A69" r:id="rId67" display="https://www.allrecipes.com" tooltip="https://www.allrecipes.com/"/>
-    <hyperlink ref="A70" r:id="rId68" display="https://www.foodnetwork.com" tooltip="https://www.foodnetwork.com/"/>
-    <hyperlink ref="A71" r:id="rId69" display="https://www.epicurious.com" tooltip="https://www.epicurious.com/"/>
-    <hyperlink ref="A72" r:id="rId70" display="https://www.bonappetit.com" tooltip="https://www.bonappetit.com/"/>
-    <hyperlink ref="A73" r:id="rId71" display="https://www.delish.com" tooltip="https://www.delish.com/"/>
-    <hyperlink ref="A74" r:id="rId72" display="https://www.seriouseats.com" tooltip="https://www.seriouseats.com/"/>
-    <hyperlink ref="A75" r:id="rId73" display="https://www.foodandwine.com" tooltip="https://www.foodandwine.com/"/>
-    <hyperlink ref="A76" r:id="rId74" display="https://www.cooksillustrated.com" tooltip="https://www.cooksillustrated.com/"/>
-    <hyperlink ref="A77" r:id="rId75" display="https://www.myrecipes.com" tooltip="https://www.myrecipes.com/"/>
-    <hyperlink ref="A78" r:id="rId76" display="https://www.simplyrecipes.com" tooltip="https://www.simplyrecipes.com/"/>
-    <hyperlink ref="A79" r:id="rId77" display="https://www.thekitchn.com" tooltip="https://www.thekitchn.com/"/>
-    <hyperlink ref="A80" r:id="rId78" display="https://www.recipe.com" tooltip="https://www.recipe.com/"/>
-    <hyperlink ref="A81" r:id="rId79" display="https://www.skinnytaste.com" tooltip="https://www.skinnytaste.com/"/>
-    <hyperlink ref="A82" r:id="rId80" display="https://www.bettycrocker.com" tooltip="https://www.bettycrocker.com/"/>
-    <hyperlink ref="A83" r:id="rId81" display="https://www.kingarthurflour.com" tooltip="https://www.kingarthurflour.com/"/>
-    <hyperlink ref="A84" r:id="rId82" display="https://www.news.sky.com" tooltip="https://www.news.sky.com/"/>
-    <hyperlink ref="A85" r:id="rId83" display="https://www.itv.com" tooltip="https://www.itv.com/"/>
-    <hyperlink ref="A86" r:id="rId84" display="https://www.channel4.com" tooltip="https://www.channel4.com/"/>
-    <hyperlink ref="A87" r:id="rId85" display="https://www.channel5.com" tooltip="https://www.channel5.com/"/>
-    <hyperlink ref="A88" r:id="rId86" display="https://www.nationalgeographic.com" tooltip="https://www.nationalgeographic.com/"/>
-    <hyperlink ref="A89" r:id="rId87" display="https://www.discovery.com" tooltip="https://www.discovery.com/"/>
-    <hyperlink ref="A90" r:id="rId88" display="https://www.smithsonianmag.com" tooltip="https://www.smithsonianmag.com/"/>
-    <hyperlink ref="A91" r:id="rId89" display="https://www.popsci.com" tooltip="https://www.popsci.com/"/>
-    <hyperlink ref="A92" r:id="rId90" display="https://www.scientificamerican.com" tooltip="https://www.scientificamerican.com/"/>
-    <hyperlink ref="A93" r:id="rId91" display="https://www.nature.com" tooltip="https://www.nature.com/"/>
-    <hyperlink ref="A94" r:id="rId92" display="https://www.newscientist.com" tooltip="https://www.newscientist.com/"/>
-    <hyperlink ref="A95" r:id="rId21" display="https://www.nasa.gov" tooltip="https://www.nasa.gov/"/>
-    <hyperlink ref="A96" r:id="rId93" display="https://www.worldbank.org" tooltip="https://www.worldbank.org/"/>
-    <hyperlink ref="A97" r:id="rId94" display="https://www.space.com" tooltip="https://www.space.com/"/>
-    <hyperlink ref="A98" r:id="rId95" display="https://www.un.org" tooltip="https://www.un.org/"/>
-    <hyperlink ref="A99" r:id="rId96" display="https://www.futureplay.in/" tooltip="https://www.futureplay.in/"/>
-    <hyperlink ref="A100" r:id="rId97" display="https://www.faretobaby.com/" tooltip="https://www.faretobaby.com/"/>
-    <hyperlink ref="A101" r:id="rId98" display="https://www.ibrow.in/" tooltip="https://www.ibrow.in/"/>
-    <hyperlink ref="A102" r:id="rId99" display="https://www.pantechelearning.com/" tooltip="https://www.pantechelearning.com/"/>
-    <hyperlink ref="A103" r:id="rId100" display="https://www.youthvillehostel.com/" tooltip="https://www.youthvillehostel.com/"/>
-    <hyperlink ref="A104" r:id="rId101" display="https://www.stownest.com/" tooltip="https://www.stownest.com/"/>
-    <hyperlink ref="A105" r:id="rId102" display="https://www.technosport.in/" tooltip="https://www.technosport.in/"/>
-    <hyperlink ref="A106" r:id="rId103" display="https://www.fuelled.in/" tooltip="https://www.fuelled.in/"/>
-    <hyperlink ref="A107" r:id="rId104" display="https://www.asmitapatel.com/" tooltip="https://www.asmitapatel.com/"/>
-    <hyperlink ref="A108" r:id="rId105" display="https://www.fitness2flash.com/" tooltip="https://www.fitness2flash.com/"/>
-    <hyperlink ref="A109" r:id="rId106" display="https://www.yashhln.wixsite.com/" tooltip="https://www.yashhln.wixsite.com/"/>
-    <hyperlink ref="A110" r:id="rId107" display="https://www.rahulmalodia.com/" tooltip="https://www.rahulmalodia.com/"/>
-    <hyperlink ref="A111" r:id="rId108" display="https://www.dipanshuvijay.com/" tooltip="https://www.dipanshuvijay.com/"/>
-    <hyperlink ref="A112" r:id="rId109" display="https://www.jainfuturisticacademy.com/" tooltip="https://www.jainfuturisticacademy.com/"/>
-    <hyperlink ref="A113" r:id="rId110" display="https://www.purushottamaggarwal.com/" tooltip="https://www.purushottamaggarwal.com/"/>
-    <hyperlink ref="A114" r:id="rId111" display="https://www.gonatureclassrooms.org/" tooltip="https://www.gonatureclassrooms.org/"/>
-    <hyperlink ref="A115" r:id="rId112" display="https://www.beyondenough.in/" tooltip="https://www.beyondenough.in/"/>
-    <hyperlink ref="A116" r:id="rId113" display="https://www.sloshout.com/" tooltip="https://www.sloshout.com/"/>
-    <hyperlink ref="A117" r:id="rId114" display="https://www.coachbsr.com/" tooltip="https://www.coachbsr.com/"/>
-    <hyperlink ref="A118" r:id="rId115" display="https://www.researchalert.in/" tooltip="https://www.researchalert.in/"/>
-    <hyperlink ref="A119" r:id="rId116" display="https://www.anandaindia.org/" tooltip="https://www.anandaindia.org/"/>
-    <hyperlink ref="A120" r:id="rId117" display="https://www.novaananth.com/" tooltip="https://www.novaananth.com/"/>
-    <hyperlink ref="A121" r:id="rId118" display="https://www.mrsindia.co/" tooltip="https://www.mrsindia.co/"/>
-    <hyperlink ref="A122" r:id="rId119" display="https://www.igiaviationdelhi.com/" tooltip="https://www.igiaviationdelhi.com/"/>
-    <hyperlink ref="A123" r:id="rId120" display="https://www.medigrad.com/" tooltip="https://www.medigrad.com/"/>
-    <hyperlink ref="A124" r:id="rId121" display="https://www.guarented.com/" tooltip="https://www.guarented.com/"/>
-    <hyperlink ref="A125" r:id="rId122" display="https://www.tan365.in/" tooltip="https://www.tan365.in/"/>
-    <hyperlink ref="A126" r:id="rId123" display="https://www.bsiacademy.in/" tooltip="https://www.bsiacademy.in/"/>
-    <hyperlink ref="A127" r:id="rId124" display="https://www.mytadoba.org/" tooltip="https://www.mytadoba.org/"/>
-    <hyperlink ref="A128" r:id="rId125" display="https://www.smsrampur.com/" tooltip="https://www.smsrampur.com/"/>
-    <hyperlink ref="A129" r:id="rId126" display="https://www.thebigredgroup.com/" tooltip="https://www.thebigredgroup.com/"/>
-    <hyperlink ref="A130" r:id="rId127" display="https://www.selfpractice.yogashowstheway.com/" tooltip="https://www.selfpractice.yogashowstheway.com/"/>
-    <hyperlink ref="A131" r:id="rId128" display="https://www.smartmove.co.in/" tooltip="https://www.smartmove.co.in/"/>
-    <hyperlink ref="A132" r:id="rId129" display="https://www.ubtpro.in/" tooltip="https://www.ubtpro.in/"/>
-    <hyperlink ref="A133" r:id="rId130" display="https://www.playspots.in/" tooltip="https://www.playspots.in/"/>
-    <hyperlink ref="A134" r:id="rId131" display="https://www.eduxoncabs.com/" tooltip="https://www.eduxoncabs.com/"/>
-    <hyperlink ref="A135" r:id="rId132" display="https://www.myonlineca.in/" tooltip="https://www.myonlineca.in/"/>
-    <hyperlink ref="A136" r:id="rId133" display="https://www.imare.in/" tooltip="https://www.imare.in/"/>
-    <hyperlink ref="A137" r:id="rId134" display="https://www.aksharyogaonline.com/" tooltip="https://www.aksharyogaonline.com/"/>
-    <hyperlink ref="A138" r:id="rId135" display="https://www.clatapult.com/" tooltip="https://www.clatapult.com/"/>
-    <hyperlink ref="A139" r:id="rId136" display="https://www.sharebazarexpert.com/" tooltip="https://www.sharebazarexpert.com/"/>
-    <hyperlink ref="A140" r:id="rId137" display="https://www.purplepatchfarms.in/" tooltip="https://www.purplepatchfarms.in/"/>
-    <hyperlink ref="A141" r:id="rId138" display="https://www.qualityhubindia.com/" tooltip="https://www.qualityhubindia.com/"/>
-    <hyperlink ref="A142" r:id="rId139" display="https://www.askiitians.com/" tooltip="https://www.askiitians.com/"/>
-    <hyperlink ref="A143" r:id="rId140" display="https://www.pachaa.in/" tooltip="https://www.pachaa.in/"/>
-    <hyperlink ref="A144" r:id="rId141" display="https://www.manishvermaofficial.com/" tooltip="https://www.manishvermaofficial.com/"/>
-    <hyperlink ref="A145" r:id="rId142" display="https://www.issuewire.com/" tooltip="https://www.issuewire.com/"/>
-    <hyperlink ref="A146" r:id="rId143" display="https://www.quantsgrow.com/" tooltip="https://www.quantsgrow.com/"/>
-    <hyperlink ref="A147" r:id="rId144" display="https://www.utpalkc.com/" tooltip="https://www.utpalkc.com/"/>
-    <hyperlink ref="A148" r:id="rId145" display="https://www.giftstoindia24x7.com/" tooltip="https://www.giftstoindia24x7.com/"/>
-    <hyperlink ref="A149" r:id="rId146" display="https://www.vriksham.in/" tooltip="https://www.vriksham.in/"/>
-    <hyperlink ref="A150" r:id="rId147" display="https://www.ebizfiling.com/" tooltip="https://www.ebizfiling.com/"/>
-    <hyperlink ref="A151" r:id="rId148" display="https://www.shreetraining.com/" tooltip="https://www.shreetraining.com/"/>
-    <hyperlink ref="A152" r:id="rId149" display="https://www.blisspointstudies.com/" tooltip="https://www.blisspointstudies.com/"/>
-    <hyperlink ref="A153" r:id="rId150" display="https://www.fivevidya.com/" tooltip="https://www.fivevidya.com/"/>
-    <hyperlink ref="A154" r:id="rId151" display="https://www.thirdbell.in/" tooltip="https://www.thirdbell.in/"/>
-    <hyperlink ref="A155" r:id="rId152" display="https://www.speakify.com/" tooltip="https://www.speakify.com/"/>
-    <hyperlink ref="A156" r:id="rId153" display="https://www.shankarkulkarni.com/" tooltip="https://www.shankarkulkarni.com/"/>
-    <hyperlink ref="A157" r:id="rId154" display="https://www.usedbooksfactory.com/" tooltip="https://www.usedbooksfactory.com/"/>
-    <hyperlink ref="A158" r:id="rId155" display="https://www.taubsolutions.com/" tooltip="https://www.taubsolutions.com/"/>
-    <hyperlink ref="A159" r:id="rId156" display="https://www.academy.codingrad.com/" tooltip="https://www.academy.codingrad.com/"/>
-    <hyperlink ref="A160" r:id="rId157" display="https://www.decorpot.com/" tooltip="https://www.decorpot.com/"/>
-    <hyperlink ref="A161" r:id="rId158" display="https://www.carajaclasses.com/" tooltip="https://www.carajaclasses.com/"/>
-    <hyperlink ref="A162" r:id="rId159" display="https://www.anooplifemanagementacademy.com/" tooltip="https://www.anooplifemanagementacademy.com/"/>
-    <hyperlink ref="A163" r:id="rId160" display="https://www.prorsi.com/" tooltip="https://www.prorsi.com/"/>
-    <hyperlink ref="A164" r:id="rId125" display="https://www.smsrampur.com/" tooltip="https://www.smsrampur.com/"/>
-    <hyperlink ref="A165" r:id="rId161" display="https://www.sharan-india.org/" tooltip="https://www.sharan-india.org/"/>
-    <hyperlink ref="A166" r:id="rId162" display="https://www.theporter.in/" tooltip="https://www.theporter.in/"/>
-    <hyperlink ref="A167" r:id="rId163" display="https://www.shreedembla.com/" tooltip="https://www.shreedembla.com/"/>
-    <hyperlink ref="A168" r:id="rId164" display="https://www.tdspro.in/" tooltip="https://www.tdspro.in/"/>
-    <hyperlink ref="A169" r:id="rId165" display="https://www.bni-puneeast.in/" tooltip="https://www.bni-puneeast.in/"/>
-    <hyperlink ref="A2" r:id="rId166" display="https://www.google.com" tooltip="https://www.google.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.amazon.com" tooltip="https://www.amazon.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.nytimes.com" tooltip="https://www.nytimes.com/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.wikipedia.org" tooltip="https://www.wikipedia.org/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.cnn.com" tooltip="https://www.cnn.com/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.apple.com" tooltip="https://www.apple.com/"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.microsoft.com" tooltip="https://www.microsoft.com/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.youtube.com" tooltip="https://www.youtube.com/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.facebook.com" tooltip="https://www.facebook.com/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.instagram.com" tooltip="https://www.instagram.com/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.twitter.com" tooltip="https://www.twitter.com/"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.linkedin.com" tooltip="https://www.linkedin.com/"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.reddit.com" tooltip="https://www.reddit.com/"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.stackoverflow.com" tooltip="https://www.stackoverflow.com/"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.netflix.com" tooltip="https://www.netflix.com/"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://www.spotify.com" tooltip="https://www.spotify.com/"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.pinterest.com" tooltip="https://www.pinterest.com/"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.tumblr.com" tooltip="https://www.tumblr.com/"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.yahoo.com" tooltip="https://www.yahoo.com/"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.bing.com" tooltip="https://www.bing.com/"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.nasa.gov" tooltip="https://www.nasa.gov/"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://www.bbc.com" tooltip="https://www.bbc.com/"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://www.duckduckgo.com" tooltip="https://www.duckduckgo.com/"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://www.quora.com" tooltip="https://www.quora.com/"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://www.dropbox.com" tooltip="https://www.dropbox.com/"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://www.medium.com" tooltip="https://www.medium.com/"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://www.twitch.tv" tooltip="https://www.twitch.tv/"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://www.ebay.com" tooltip="https://www.ebay.com/"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://www.aliexpress.com" tooltip="https://www.aliexpress.com/"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.walmart.com" tooltip="https://www.walmart.com/"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://www.target.com" tooltip="https://www.target.com/"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://www.bestbuy.com" tooltip="https://www.bestbuy.com/"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://www.homedepot.com" tooltip="https://www.homedepot.com/"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://www.lowes.com" tooltip="https://www.lowes.com/"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://www.costco.com" tooltip="https://www.costco.com/"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://www.alibaba.com" tooltip="https://www.alibaba.com/"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://www.booking.com" tooltip="https://www.booking.com/"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://www.expedia.com" tooltip="https://www.expedia.com/"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://www.airbnb.com" tooltip="https://www.airbnb.com/"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://www.zillow.com" tooltip="https://www.zillow.com/"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://www.trulia.com" tooltip="https://www.trulia.com/"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://www.realtor.com" tooltip="https://www.realtor.com/"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://www.reuters.com" tooltip="https://www.reuters.com/"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://www.bloomberg.com" tooltip="https://www.bloomberg.com/"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://www.wsj.com" tooltip="https://www.wsj.com/"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://www.ft.com" tooltip="https://www.ft.com/"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://www.economist.com" tooltip="https://www.economist.com/"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://www.forbes.com" tooltip="https://www.forbes.com/"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://www.businessinsider.com" tooltip="https://www.businessinsider.com/"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://www.cnbc.com" tooltip="https://www.cnbc.com/"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://www.buzzfeed.com" tooltip="https://www.buzzfeed.com/"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://www.techcrunch.com" tooltip="https://www.techcrunch.com/"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://www.engadget.com" tooltip="https://www.engadget.com/"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://www.arstechnica.com" tooltip="https://www.arstechnica.com/"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://www.wired.com" tooltip="https://www.wired.com/"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://www.theverge.com" tooltip="https://www.theverge.com/"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://www.mashable.com" tooltip="https://www.mashable.com/"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://www.cnet.com" tooltip="https://www.cnet.com/"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://www.pcworld.com" tooltip="https://www.pcworld.com/"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://www.tomsguide.com" tooltip="https://www.tomsguide.com/"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://www.gamespot.com" tooltip="https://www.gamespot.com/"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://www.ign.com" tooltip="https://www.ign.com/"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://www.polygon.com" tooltip="https://www.polygon.com/"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://www.kotaku.com" tooltip="https://www.kotaku.com/"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://www.eurogamer.net" tooltip="https://www.eurogamer.net/"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://www.bbcgoodfood.com" tooltip="https://www.bbcgoodfood.com/"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://www.allrecipes.com" tooltip="https://www.allrecipes.com/"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://www.foodnetwork.com" tooltip="https://www.foodnetwork.com/"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://www.epicurious.com" tooltip="https://www.epicurious.com/"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://www.bonappetit.com" tooltip="https://www.bonappetit.com/"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://www.delish.com" tooltip="https://www.delish.com/"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://www.seriouseats.com" tooltip="https://www.seriouseats.com/"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://www.foodandwine.com" tooltip="https://www.foodandwine.com/"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://www.cooksillustrated.com" tooltip="https://www.cooksillustrated.com/"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://www.myrecipes.com" tooltip="https://www.myrecipes.com/"/>
+    <hyperlink ref="A76" r:id="rId75" display="https://www.simplyrecipes.com" tooltip="https://www.simplyrecipes.com/"/>
+    <hyperlink ref="A77" r:id="rId76" display="https://www.thekitchn.com" tooltip="https://www.thekitchn.com/"/>
+    <hyperlink ref="A78" r:id="rId77" display="https://www.recipe.com" tooltip="https://www.recipe.com/"/>
+    <hyperlink ref="A79" r:id="rId78" display="https://www.skinnytaste.com" tooltip="https://www.skinnytaste.com/"/>
+    <hyperlink ref="A80" r:id="rId79" display="https://www.bettycrocker.com" tooltip="https://www.bettycrocker.com/"/>
+    <hyperlink ref="A81" r:id="rId80" display="https://www.kingarthurflour.com" tooltip="https://www.kingarthurflour.com/"/>
+    <hyperlink ref="A82" r:id="rId81" display="https://www.news.sky.com" tooltip="https://www.news.sky.com/"/>
+    <hyperlink ref="A83" r:id="rId82" display="https://www.itv.com" tooltip="https://www.itv.com/"/>
+    <hyperlink ref="A84" r:id="rId83" display="https://www.channel4.com" tooltip="https://www.channel4.com/"/>
+    <hyperlink ref="A85" r:id="rId84" display="https://www.channel5.com" tooltip="https://www.channel5.com/"/>
+    <hyperlink ref="A86" r:id="rId85" display="https://www.nationalgeographic.com" tooltip="https://www.nationalgeographic.com/"/>
+    <hyperlink ref="A87" r:id="rId86" display="https://www.discovery.com" tooltip="https://www.discovery.com/"/>
+    <hyperlink ref="A88" r:id="rId87" display="https://www.smithsonianmag.com" tooltip="https://www.smithsonianmag.com/"/>
+    <hyperlink ref="A89" r:id="rId88" display="https://www.popsci.com" tooltip="https://www.popsci.com/"/>
+    <hyperlink ref="A90" r:id="rId89" display="https://www.scientificamerican.com" tooltip="https://www.scientificamerican.com/"/>
+    <hyperlink ref="A91" r:id="rId90" display="https://www.nature.com" tooltip="https://www.nature.com/"/>
+    <hyperlink ref="A92" r:id="rId91" display="https://www.newscientist.com" tooltip="https://www.newscientist.com/"/>
+    <hyperlink ref="A93" r:id="rId20" display="https://www.nasa.gov" tooltip="https://www.nasa.gov/"/>
+    <hyperlink ref="A94" r:id="rId92" display="https://www.worldbank.org" tooltip="https://www.worldbank.org/"/>
+    <hyperlink ref="A95" r:id="rId93" display="https://www.space.com" tooltip="https://www.space.com/"/>
+    <hyperlink ref="A96" r:id="rId94" display="https://www.un.org" tooltip="https://www.un.org/"/>
+    <hyperlink ref="A97" r:id="rId95" display="https://www.futureplay.in/" tooltip="https://www.futureplay.in/"/>
+    <hyperlink ref="A98" r:id="rId96" display="https://www.faretobaby.com/" tooltip="https://www.faretobaby.com/"/>
+    <hyperlink ref="A99" r:id="rId97" display="https://www.ibrow.in/" tooltip="https://www.ibrow.in/"/>
+    <hyperlink ref="A100" r:id="rId98" display="https://www.pantechelearning.com/" tooltip="https://www.pantechelearning.com/"/>
+    <hyperlink ref="A101" r:id="rId99" display="https://www.youthvillehostel.com/" tooltip="https://www.youthvillehostel.com/"/>
+    <hyperlink ref="A102" r:id="rId100" display="https://www.stownest.com/" tooltip="https://www.stownest.com/"/>
+    <hyperlink ref="A103" r:id="rId101" display="https://www.technosport.in/" tooltip="https://www.technosport.in/"/>
+    <hyperlink ref="A104" r:id="rId102" display="https://www.fuelled.in/" tooltip="https://www.fuelled.in/"/>
+    <hyperlink ref="A105" r:id="rId103" display="https://www.asmitapatel.com/" tooltip="https://www.asmitapatel.com/"/>
+    <hyperlink ref="A106" r:id="rId104" display="https://www.fitness2flash.com/" tooltip="https://www.fitness2flash.com/"/>
+    <hyperlink ref="A107" r:id="rId105" display="https://www.yashhln.wixsite.com/" tooltip="https://www.yashhln.wixsite.com/"/>
+    <hyperlink ref="A108" r:id="rId106" display="https://www.rahulmalodia.com/" tooltip="https://www.rahulmalodia.com/"/>
+    <hyperlink ref="A109" r:id="rId107" display="https://www.dipanshuvijay.com/" tooltip="https://www.dipanshuvijay.com/"/>
+    <hyperlink ref="A110" r:id="rId108" display="https://www.jainfuturisticacademy.com/" tooltip="https://www.jainfuturisticacademy.com/"/>
+    <hyperlink ref="A111" r:id="rId109" display="https://www.purushottamaggarwal.com/" tooltip="https://www.purushottamaggarwal.com/"/>
+    <hyperlink ref="A112" r:id="rId110" display="https://www.gonatureclassrooms.org/" tooltip="https://www.gonatureclassrooms.org/"/>
+    <hyperlink ref="A113" r:id="rId111" display="https://www.beyondenough.in/" tooltip="https://www.beyondenough.in/"/>
+    <hyperlink ref="A114" r:id="rId112" display="https://www.sloshout.com/" tooltip="https://www.sloshout.com/"/>
+    <hyperlink ref="A115" r:id="rId113" display="https://www.coachbsr.com/" tooltip="https://www.coachbsr.com/"/>
+    <hyperlink ref="A116" r:id="rId114" display="https://www.researchalert.in/" tooltip="https://www.researchalert.in/"/>
+    <hyperlink ref="A117" r:id="rId115" display="https://www.anandaindia.org/" tooltip="https://www.anandaindia.org/"/>
+    <hyperlink ref="A118" r:id="rId116" display="https://www.novaananth.com/" tooltip="https://www.novaananth.com/"/>
+    <hyperlink ref="A119" r:id="rId117" display="https://www.mrsindia.co/" tooltip="https://www.mrsindia.co/"/>
+    <hyperlink ref="A120" r:id="rId118" display="https://www.igiaviationdelhi.com/" tooltip="https://www.igiaviationdelhi.com/"/>
+    <hyperlink ref="A121" r:id="rId119" display="https://www.medigrad.com/" tooltip="https://www.medigrad.com/"/>
+    <hyperlink ref="A122" r:id="rId120" display="https://www.guarented.com/" tooltip="https://www.guarented.com/"/>
+    <hyperlink ref="A123" r:id="rId121" display="https://www.tan365.in/" tooltip="https://www.tan365.in/"/>
+    <hyperlink ref="A124" r:id="rId122" display="https://www.bsiacademy.in/" tooltip="https://www.bsiacademy.in/"/>
+    <hyperlink ref="A125" r:id="rId123" display="https://www.mytadoba.org/" tooltip="https://www.mytadoba.org/"/>
+    <hyperlink ref="A126" r:id="rId124" display="https://www.smsrampur.com/" tooltip="https://www.smsrampur.com/"/>
+    <hyperlink ref="A127" r:id="rId125" display="https://www.thebigredgroup.com/" tooltip="https://www.thebigredgroup.com/"/>
+    <hyperlink ref="A128" r:id="rId126" display="https://www.selfpractice.yogashowstheway.com/" tooltip="https://www.selfpractice.yogashowstheway.com/"/>
+    <hyperlink ref="A129" r:id="rId127" display="https://www.smartmove.co.in/" tooltip="https://www.smartmove.co.in/"/>
+    <hyperlink ref="A130" r:id="rId128" display="https://www.ubtpro.in/" tooltip="https://www.ubtpro.in/"/>
+    <hyperlink ref="A131" r:id="rId129" display="https://www.playspots.in/" tooltip="https://www.playspots.in/"/>
+    <hyperlink ref="A132" r:id="rId130" display="https://www.eduxoncabs.com/" tooltip="https://www.eduxoncabs.com/"/>
+    <hyperlink ref="A133" r:id="rId131" display="https://www.myonlineca.in/" tooltip="https://www.myonlineca.in/"/>
+    <hyperlink ref="A134" r:id="rId132" display="https://www.imare.in/" tooltip="https://www.imare.in/"/>
+    <hyperlink ref="A135" r:id="rId133" display="https://www.aksharyogaonline.com/" tooltip="https://www.aksharyogaonline.com/"/>
+    <hyperlink ref="A136" r:id="rId134" display="https://www.clatapult.com/" tooltip="https://www.clatapult.com/"/>
+    <hyperlink ref="A137" r:id="rId135" display="https://www.sharebazarexpert.com/" tooltip="https://www.sharebazarexpert.com/"/>
+    <hyperlink ref="A138" r:id="rId136" display="https://www.purplepatchfarms.in/" tooltip="https://www.purplepatchfarms.in/"/>
+    <hyperlink ref="A139" r:id="rId137" display="https://www.qualityhubindia.com/" tooltip="https://www.qualityhubindia.com/"/>
+    <hyperlink ref="A140" r:id="rId138" display="https://www.askiitians.com/" tooltip="https://www.askiitians.com/"/>
+    <hyperlink ref="A141" r:id="rId139" display="https://www.pachaa.in/" tooltip="https://www.pachaa.in/"/>
+    <hyperlink ref="A142" r:id="rId140" display="https://www.manishvermaofficial.com/" tooltip="https://www.manishvermaofficial.com/"/>
+    <hyperlink ref="A143" r:id="rId141" display="https://www.issuewire.com/" tooltip="https://www.issuewire.com/"/>
+    <hyperlink ref="A144" r:id="rId142" display="https://www.quantsgrow.com/" tooltip="https://www.quantsgrow.com/"/>
+    <hyperlink ref="A145" r:id="rId143" display="https://www.utpalkc.com/" tooltip="https://www.utpalkc.com/"/>
+    <hyperlink ref="A146" r:id="rId144" display="https://www.giftstoindia24x7.com/" tooltip="https://www.giftstoindia24x7.com/"/>
+    <hyperlink ref="A147" r:id="rId145" display="https://www.vriksham.in/" tooltip="https://www.vriksham.in/"/>
+    <hyperlink ref="A148" r:id="rId146" display="https://www.ebizfiling.com/" tooltip="https://www.ebizfiling.com/"/>
+    <hyperlink ref="A149" r:id="rId147" display="https://www.shreetraining.com/" tooltip="https://www.shreetraining.com/"/>
+    <hyperlink ref="A150" r:id="rId148" display="https://www.blisspointstudies.com/" tooltip="https://www.blisspointstudies.com/"/>
+    <hyperlink ref="A151" r:id="rId149" display="https://www.fivevidya.com/" tooltip="https://www.fivevidya.com/"/>
+    <hyperlink ref="A152" r:id="rId150" display="https://www.thirdbell.in/" tooltip="https://www.thirdbell.in/"/>
+    <hyperlink ref="A153" r:id="rId151" display="https://www.speakify.com/" tooltip="https://www.speakify.com/"/>
+    <hyperlink ref="A154" r:id="rId152" display="https://www.shankarkulkarni.com/" tooltip="https://www.shankarkulkarni.com/"/>
+    <hyperlink ref="A155" r:id="rId153" display="https://www.usedbooksfactory.com/" tooltip="https://www.usedbooksfactory.com/"/>
+    <hyperlink ref="A156" r:id="rId154" display="https://www.taubsolutions.com/" tooltip="https://www.taubsolutions.com/"/>
+    <hyperlink ref="A157" r:id="rId155" display="https://www.academy.codingrad.com/" tooltip="https://www.academy.codingrad.com/"/>
+    <hyperlink ref="A158" r:id="rId156" display="https://www.decorpot.com/" tooltip="https://www.decorpot.com/"/>
+    <hyperlink ref="A159" r:id="rId157" display="https://www.carajaclasses.com/" tooltip="https://www.carajaclasses.com/"/>
+    <hyperlink ref="A160" r:id="rId158" display="https://www.anooplifemanagementacademy.com/" tooltip="https://www.anooplifemanagementacademy.com/"/>
+    <hyperlink ref="A161" r:id="rId159" display="https://www.prorsi.com/" tooltip="https://www.prorsi.com/"/>
+    <hyperlink ref="A162" r:id="rId124" display="https://www.smsrampur.com/" tooltip="https://www.smsrampur.com/"/>
+    <hyperlink ref="A163" r:id="rId160" display="https://www.sharan-india.org/" tooltip="https://www.sharan-india.org/"/>
+    <hyperlink ref="A164" r:id="rId161" display="https://www.theporter.in/" tooltip="https://www.theporter.in/"/>
+    <hyperlink ref="A165" r:id="rId162" display="https://www.shreedembla.com/" tooltip="https://www.shreedembla.com/"/>
+    <hyperlink ref="A166" r:id="rId163" display="https://www.tdspro.in/" tooltip="https://www.tdspro.in/"/>
+    <hyperlink ref="A167" r:id="rId164" display="https://www.bni-puneeast.in/" tooltip="https://www.bni-puneeast.in/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
